--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMMS\NEW-CMMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\input data\input-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFF5B5-81E5-445C-93C3-3CA713BC0A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4282C7-ABC1-44A5-AE2F-DA516A2432F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card24" sheetId="28" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="151">
   <si>
     <t>card</t>
   </si>
@@ -5345,10 +5345,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6994100-3365-44D7-8367-819204303B10}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5366,7 +5366,7 @@
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5403,8 +5403,14 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -5424,7 +5430,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5470,7 +5476,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -5602,7 +5608,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -5622,7 +5628,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -5642,7 +5648,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -6469,8 +6475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,10 +6838,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6853,7 +6859,7 @@
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6890,8 +6896,14 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -6911,7 +6923,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6987,7 +6999,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7013,7 +7025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -7069,7 +7081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -7089,7 +7101,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -7109,7 +7121,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -7129,7 +7141,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,24 +779,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3861,7 +3843,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3869,7 +3851,9 @@
       <c r="C2" t="n">
         <v>150</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -3771,7 +3771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3851,9 +3851,7 @@
       <c r="C2" t="n">
         <v>150</v>
       </c>
-      <c r="D2" t="n">
-        <v>60</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -4066,6 +4064,48 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1\9\2025</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -3771,7 +3771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3840,6 +3840,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3860,6 +3865,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3884,6 +3890,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3904,6 +3911,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3924,6 +3932,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3944,6 +3953,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3964,6 +3974,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3984,6 +3995,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4004,6 +4016,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4024,6 +4037,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4044,6 +4058,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4064,48 +4079,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1\9\2025</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -3771,7 +3771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3840,11 +3840,6 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3865,7 +3860,6 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3890,7 +3884,6 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3911,7 +3904,6 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3932,7 +3924,6 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3953,7 +3944,6 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3974,7 +3964,6 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3995,7 +3984,6 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4016,7 +4004,6 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4037,7 +4024,6 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4058,7 +4044,6 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4079,7 +4064,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -3851,7 +3851,9 @@
       <c r="C2" t="n">
         <v>150</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -3771,7 +3771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3840,6 +3840,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3860,6 +3865,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3884,6 +3890,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3904,6 +3911,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3924,6 +3932,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3944,6 +3953,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3964,6 +3974,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3984,6 +3995,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4004,6 +4016,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4024,6 +4037,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4044,6 +4058,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4064,44 +4079,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1\9\2025</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -3771,7 +3771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3840,11 +3840,6 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3865,7 +3860,6 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3890,7 +3884,6 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3911,7 +3904,6 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3932,7 +3924,6 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3953,7 +3944,6 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3974,7 +3964,6 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3995,7 +3984,6 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4016,7 +4004,6 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4037,7 +4024,6 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4058,7 +4044,6 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4079,7 +4064,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5512,7 +5496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5594,7 +5578,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -5616,7 +5600,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>151</v>
@@ -5650,7 +5634,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>301</v>
@@ -5672,7 +5656,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>451</v>
@@ -5714,7 +5698,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>551</v>
@@ -5746,7 +5730,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>701</v>
@@ -5782,7 +5766,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>851</v>
@@ -5818,7 +5802,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>1001</v>
@@ -5840,7 +5824,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>1151</v>
@@ -5862,7 +5846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>1301</v>
@@ -5884,7 +5868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1451</v>
@@ -5903,6 +5887,22 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5577,94 +5577,242 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1\2\2025</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>تم تشغيل ماكينه</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>م/محمد عبدالله</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>21\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5680,77 +5828,165 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>19\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>573</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>573.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>8\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>729</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>729.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5761,23 +5997,43 @@
           <t>7\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>869</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>869.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5788,121 +6044,401 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>30\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5599,42 +5599,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1\2\2025</t>
+          <t>1\2\2024</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5496,7 +5496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5577,242 +5577,94 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1\2\2024</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>تم تشغيل ماكينه</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>م/محمد عبدالله</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>21\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5828,165 +5680,77 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>19\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>573.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>573</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>8\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>729.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>729</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5997,43 +5761,23 @@
           <t>7\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>869.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>869</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -6044,401 +5788,105 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>30\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9813,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9882,6 +9330,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9908,6 +9361,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9940,6 +9394,7 @@
           <t>1\12\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9960,6 +9415,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9992,6 +9448,7 @@
           <t>11\3\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -10026,6 +9483,7 @@
           <t>29\4\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -10056,6 +9514,7 @@
           <t>20\8\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -10090,6 +9549,7 @@
           <t>23\10\2025</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -10110,6 +9570,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -10130,6 +9591,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -10150,6 +9612,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -10170,6 +9633,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9332,7 +9332,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>Correction</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9332,7 +9332,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>event</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9337,58 +9337,124 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>1\12\2024</t>
@@ -9397,38 +9463,94 @@
       <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9439,10 +9561,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>11\3\2025</t>
@@ -9451,21 +9589,41 @@
       <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>590</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9476,8 +9634,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>29\4\2025</t>
@@ -9486,29 +9652,61 @@
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>785</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>20\8\2025</t>
@@ -9517,19 +9715,31 @@
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>883</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9540,10 +9750,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>23\10\2025</t>
@@ -9552,87 +9778,255 @@
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9261,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9335,6 +9335,11 @@
           <t>event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9397,7 +9402,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9460,7 +9470,12 @@
           <t>1\12\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9523,7 +9538,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9586,7 +9606,12 @@
           <t>11\3\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9649,7 +9674,12 @@
           <t>29\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9712,7 +9742,12 @@
           <t>20\8\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9775,7 +9810,12 @@
           <t>23\10\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9838,7 +9878,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9901,7 +9946,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9964,7 +10014,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10027,7 +10082,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9357,16 +9357,8 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -9407,7 +9399,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9475,12 +9471,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9543,12 +9543,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9611,12 +9615,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9679,12 +9687,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9747,12 +9759,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9815,12 +9831,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9883,12 +9903,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9951,12 +9975,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -10019,12 +10047,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -10087,7 +10119,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9261,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9357,8 +9357,16 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -10122,6 +10130,46 @@
       <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>13\8\2025</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Dfk belt  947*2.5*1.5 قطع سير</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -10149,17 +10149,49 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13\8\2025</t>
+          <t>13\8\2024</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9261,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9340,6 +9340,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9412,6 +9417,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9484,6 +9490,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9556,6 +9563,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9628,6 +9636,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9700,6 +9709,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9772,6 +9782,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9844,6 +9855,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9916,6 +9928,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9988,6 +10001,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10060,6 +10074,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10132,6 +10147,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10204,6 +10220,7 @@
           <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9349,7 +9349,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9417,12 +9417,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9490,7 +9494,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9563,7 +9571,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9636,7 +9648,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9709,7 +9725,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9782,7 +9802,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9855,7 +9879,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9928,7 +9956,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10001,7 +10033,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10074,7 +10110,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10147,7 +10187,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10220,7 +10264,11 @@
           <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>حسام السيد</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9261,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10267,6 +10267,39 @@
       <c r="O13" t="inlineStr">
         <is>
           <t>حسام السيد</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>محمد عبدالله</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9261,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9585,72 +9585,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>11\3\2025</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>محمد عبدالله</t>
         </is>
       </c>
     </row>
@@ -9662,17 +9618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9682,22 +9638,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -9712,7 +9668,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29\4\2025</t>
+          <t>11\3\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -9739,17 +9695,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9759,7 +9715,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -9769,12 +9725,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -9789,7 +9745,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20\8\2025</t>
+          <t>29\4\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -9816,17 +9772,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>785</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9841,7 +9797,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -9866,7 +9822,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>23\10\2025</t>
+          <t>20\8\2025</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -9893,17 +9849,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>883</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9913,12 +9869,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -9943,7 +9899,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>23\10\2025</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -9970,12 +9926,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10047,12 +10003,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10124,12 +10080,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10201,12 +10157,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10251,22 +10207,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13\8\2024</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Dfk belt  947*2.5*1.5 قطع سير</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>حسام السيد</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10286,18 +10242,139 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13\8\2024</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Dfk belt  947*2.5*1.5 قطع سير</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
+        <is>
+          <t>حسام السيد</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>محمد عبدالله</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9593,17 +9593,61 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>محمد عبدالله</t>
@@ -10227,21 +10271,9 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>nan</t>
@@ -10282,43 +10314,15 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>13\8\2024</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Dfk belt  947*2.5*1.5 قطع سير</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>حسام السيد</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>nan</t>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -10271,9 +10271,21 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>nan</t>
@@ -10314,15 +10326,43 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>nan</t>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9261,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9585,12 +9585,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -9605,12 +9605,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11\3\2025</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>محمد عبدالله</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -9662,17 +9662,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -9682,22 +9682,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11\3\2025</t>
+          <t>29\4\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -9739,17 +9739,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>785</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>29\4\2025</t>
+          <t>20\8\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -9816,17 +9816,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>883</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20\8\2025</t>
+          <t>23\10\2025</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -9893,17 +9893,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -9913,12 +9913,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>23\10\2025</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -9970,12 +9970,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10047,12 +10047,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10124,12 +10124,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10190,237 +10190,6 @@
       <c r="O12" t="inlineStr">
         <is>
           <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>محمد عبدالله</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\input data\input-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB45F467-42DB-46A2-A937-894E50C483F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F844B2-8CDD-45DE-9DF5-9ABD0A2D643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="182">
   <si>
     <t>card</t>
   </si>
@@ -254,12 +254,6 @@
   </si>
   <si>
     <t>13\8\2025</t>
-  </si>
-  <si>
-    <t>Dfk belt  947*2.5*1.5 قطع سير</t>
-  </si>
-  <si>
-    <t>تم تغير سير+تم تشحيم الماكينه بالكامل</t>
   </si>
   <si>
     <t>9\12\2024</t>
@@ -1265,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1282,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1302,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1345,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1477,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1505,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1528,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1571,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1703,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1754,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1777,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1800,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1932,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1966,7 +1960,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1986,7 +1980,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2012,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,7 +2029,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2164,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2198,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2218,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2244,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2267,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2433,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2453,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2479,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2502,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2634,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2671,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2691,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2714,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2737,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2866,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2903,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2923,7 +2917,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2946,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2969,7 +2963,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3310,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3330,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3356,7 +3350,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3379,7 +3373,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3906,7 +3900,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3943,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3963,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3986,7 +3980,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4009,7 +4003,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4107,10 +4101,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4141,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4178,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4198,7 +4192,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4221,7 +4215,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4244,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4309,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4324,13 +4318,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4341,19 +4335,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4364,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>755</v>
@@ -4379,7 +4373,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4390,22 +4384,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4416,22 +4410,22 @@
         <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4442,22 +4436,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,22 +4462,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4494,22 +4488,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4520,22 +4514,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4546,22 +4540,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,22 +4566,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4598,22 +4592,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4624,22 +4618,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4650,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4673,22 +4667,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4696,22 +4690,22 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4719,22 +4713,22 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4742,22 +4736,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4765,22 +4759,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4788,22 +4782,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4814,22 +4808,22 @@
         <v>888</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4837,22 +4831,22 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4860,22 +4854,22 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4883,22 +4877,22 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4906,22 +4900,22 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,7 +4950,7 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,7 +4961,7 @@
         <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,7 +4972,7 @@
         <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,7 +4983,7 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,7 +4994,7 @@
         <v>700</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,7 +5005,7 @@
         <v>850</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,7 +5016,7 @@
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,7 +5027,7 @@
         <v>1150</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,7 +5038,7 @@
         <v>1300</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,7 +5049,7 @@
         <v>1450</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,7 +5060,7 @@
         <v>1500</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5120,10 +5114,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5140,13 +5134,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" t="s">
         <v>173</v>
-      </c>
-      <c r="M2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5172,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5209,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -5232,7 +5226,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5255,7 +5249,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5275,7 +5269,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5373,10 +5367,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5410,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5433,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5464,7 +5458,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5487,7 +5481,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5510,7 +5504,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6393,9 +6387,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6931,26 +6927,6 @@
       </c>
       <c r="N12" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7032,7 +7008,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7063,7 +7039,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7083,7 +7059,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7103,7 +7079,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7126,7 +7102,7 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7255,7 +7231,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7292,7 +7268,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7329,13 +7305,13 @@
         <v>808</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -521,103 +521,279 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>632</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -638,8 +814,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -647,19 +831,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>870</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -670,10 +866,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -681,104 +893,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9362,66 +9784,18 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9439,66 +9813,30 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>1\12\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9516,66 +9854,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9593,16 +9883,8 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9613,46 +9895,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>11\3\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9675,21 +9929,9 @@
           <t>590</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9700,36 +9942,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>29\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9752,61 +9974,25 @@
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>20\8\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9829,11 +10015,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9844,46 +10026,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>23\10\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9901,66 +10055,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9978,66 +10084,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10055,66 +10113,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10132,66 +10142,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -536,51 +536,15 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -598,51 +562,19 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,51 +592,15 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -722,51 +618,15 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -789,11 +649,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -814,16 +670,8 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -851,11 +699,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -866,26 +710,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -908,51 +736,15 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -970,51 +762,15 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1032,51 +788,15 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1094,51 +814,15 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1156,51 +840,15 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10237,51 +9885,123 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>9\12\2024</t>
@@ -10289,37 +10009,93 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10330,10 +10106,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>10\3\2025</t>
@@ -10341,29 +10133,61 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>593</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>27\4\2025</t>
@@ -10371,29 +10195,61 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>783</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>14\8\2025</t>
@@ -10401,19 +10257,31 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>894</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10424,10 +10292,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>22\10\2025</t>
@@ -10435,84 +10319,252 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -521,20 +521,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -547,20 +541,14 @@
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -577,20 +565,14 @@
       <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -603,20 +585,14 @@
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -629,25 +605,17 @@
       <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>632</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
@@ -679,25 +647,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>870</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -721,20 +681,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -747,20 +701,14 @@
       <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -773,20 +721,14 @@
       <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -799,20 +741,14 @@
       <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -825,20 +761,14 @@
       <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -9065,51 +8995,123 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>5\12\2024</t>
@@ -9117,61 +9119,165 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>595</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>595.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9182,8 +9288,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>30\4\2025</t>
@@ -9191,29 +9305,61 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>797</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>797.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>23\8\2025</t>
@@ -9221,104 +9367,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>26\10\2025</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9417,20 +9773,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -9446,20 +9796,14 @@
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -9487,20 +9831,14 @@
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -9516,20 +9854,14 @@
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -9557,25 +9889,17 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
+      <c r="A6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>590</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -9602,25 +9926,17 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
+      <c r="A7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>785</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -9643,25 +9959,17 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>883</t>
-        </is>
+      <c r="A8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>883</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
@@ -9688,20 +9996,14 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -9717,20 +10019,14 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -9746,20 +10042,14 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -9775,20 +10065,14 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -9885,123 +10169,51 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>9\12\2024</t>
@@ -10009,93 +10221,37 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10106,26 +10262,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>10\3\2025</t>
@@ -10133,61 +10273,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>593</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>27\4\2025</t>
@@ -10195,61 +10303,29 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>783</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>783</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>14\8\2025</t>
@@ -10257,31 +10333,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>894</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10292,26 +10356,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>22\10\2025</t>
@@ -10319,252 +10367,84 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -521,103 +521,279 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>632</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>632.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -638,8 +814,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -647,19 +831,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>870</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>870.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -670,10 +866,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -681,104 +893,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8995,123 +9417,51 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>5\12\2024</t>
@@ -9119,165 +9469,61 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>595.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>595</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9288,16 +9534,8 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>30\4\2025</t>
@@ -9305,61 +9543,29 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>797.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>797</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>23\8\2025</t>
@@ -9367,31 +9573,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>888</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>888</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>done</t>
@@ -9402,26 +9596,10 @@
           <t>done</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>26\10\2025</t>
@@ -9429,252 +9607,84 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -496,103 +496,279 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>632</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -613,8 +789,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -622,19 +806,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>24</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>870</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -645,10 +841,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -656,104 +868,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>24</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>24</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>24</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,54 +595,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -652,12 +624,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -682,7 +654,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>  </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -714,12 +686,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -776,17 +748,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -796,22 +768,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -826,7 +798,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20\5\2025</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -838,17 +810,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>632</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -868,27 +840,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6\10\2025</t>
+          <t>20\5\2025</t>
         </is>
       </c>
     </row>
@@ -900,57 +872,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6\10\2025</t>
         </is>
       </c>
     </row>
@@ -962,12 +934,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1024,12 +996,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1086,12 +1058,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1148,12 +1120,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1205,40 +1177,126 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>222</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,18 +608,46 @@
           <t>done</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -629,54 +657,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>  </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -830,22 +830,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20\5\2025</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -872,17 +872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>632</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6\10\2025</t>
+          <t>20\5\2025</t>
         </is>
       </c>
     </row>
@@ -934,57 +934,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6\10\2025</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1182,12 +1182,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1239,60 +1239,122 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>222</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>  </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -647,36 +647,64 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -686,12 +714,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -716,7 +744,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>  </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -748,57 +776,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20\5\2025</t>
         </is>
       </c>
     </row>
@@ -810,57 +838,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6\10\2025</t>
         </is>
       </c>
     </row>
@@ -872,17 +900,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -892,22 +920,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -922,7 +950,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20\5\2025</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -934,17 +962,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -954,12 +982,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -984,7 +1012,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6\10\2025</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -996,12 +1024,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1058,12 +1086,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1120,12 +1148,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1177,184 +1205,60 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -895,7 +895,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1081,7 +1081,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -536,51 +536,15 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -598,51 +562,19 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,51 +592,15 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -722,51 +618,15 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -789,11 +649,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -814,16 +670,8 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -851,11 +699,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -866,26 +710,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -908,51 +736,15 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -970,51 +762,15 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1032,51 +788,15 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1094,51 +814,15 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1156,51 +840,15 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1233,36 +881,12 @@
           <t>done</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5008,36 +4632,88 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5048,15 +4724,31 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
@@ -5064,36 +4756,88 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5109,14 +4853,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
@@ -5124,29 +4880,61 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>641</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
@@ -5154,19 +4942,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>836</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5177,10 +4977,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
@@ -5188,104 +5004,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -536,15 +536,51 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -562,19 +598,51 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,15 +660,51 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -618,15 +722,51 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,7 +789,11 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -670,8 +814,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -699,7 +851,11 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -710,10 +866,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -736,15 +908,51 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -762,15 +970,51 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -788,15 +1032,51 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -814,15 +1094,51 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -840,15 +1156,51 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -881,12 +1233,36 @@
           <t>done</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4647,51 +5023,15 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4709,11 +5049,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4724,31 +5060,15 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
@@ -4771,51 +5091,15 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4833,11 +5117,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4853,26 +5133,14 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
@@ -4900,41 +5168,17 @@
           <t>641</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
@@ -4962,11 +5206,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4977,26 +5217,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
@@ -5019,51 +5243,15 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5081,51 +5269,15 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5143,51 +5295,15 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5205,51 +5321,15 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5267,51 +5347,15 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -536,51 +536,15 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -598,51 +562,19 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,51 +592,15 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -722,51 +618,15 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -789,11 +649,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -814,16 +670,8 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -851,11 +699,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -866,26 +710,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -908,51 +736,15 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -970,51 +762,15 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1032,51 +788,15 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1094,51 +814,15 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1156,51 +840,15 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1233,36 +881,12 @@
           <t>done</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7581,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7650,39 +7274,95 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="n">
-        <v>159</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -7694,52 +7374,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>15\7\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7755,77 +7505,147 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>29\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>565</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>5\4\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>724</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7836,116 +7656,322 @@
           <t>5\7\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>859</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>24\9\2025</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7205,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7279,6 +7279,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correction </t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7341,7 +7346,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7404,7 +7414,12 @@
           <t>15\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7467,7 +7482,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7530,7 +7550,12 @@
           <t>29\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7593,7 +7618,12 @@
           <t>5\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7656,7 +7686,12 @@
           <t>5\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7719,7 +7754,12 @@
           <t>24\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7782,7 +7822,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7845,7 +7890,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7908,7 +7958,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7971,7 +8026,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7205,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7281,7 +7281,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Correction </t>
+          <t>Correction</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviced by </t>
         </is>
       </c>
     </row>
@@ -7351,7 +7356,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7419,7 +7429,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7487,7 +7502,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7555,7 +7575,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7623,7 +7648,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7691,7 +7721,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7759,7 +7794,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7827,7 +7867,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7895,7 +7940,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7963,7 +8013,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8031,7 +8086,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7286,7 +7286,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serviced by </t>
+          <t>Serviced by</t>
         </is>
       </c>
     </row>
@@ -7351,17 +7351,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7424,17 +7424,17 @@
           <t>15\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7497,17 +7497,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7570,17 +7570,17 @@
           <t>29\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7643,17 +7643,17 @@
           <t>5\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7716,17 +7716,17 @@
           <t>5\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7789,17 +7789,17 @@
           <t>24\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7862,17 +7862,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7935,17 +7935,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8008,17 +8008,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8081,17 +8081,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7205,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7289,6 +7289,11 @@
           <t>Serviced by</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Crrection</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7351,7 +7356,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7362,6 +7371,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7424,7 +7434,11 @@
           <t>15\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7435,6 +7449,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7497,7 +7512,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7508,6 +7527,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7570,7 +7590,11 @@
           <t>29\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7581,6 +7605,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7643,7 +7668,11 @@
           <t>5\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7654,6 +7683,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7716,7 +7746,11 @@
           <t>5\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7727,6 +7761,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7789,7 +7824,11 @@
           <t>24\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7800,6 +7839,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7862,7 +7902,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7873,6 +7917,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7935,7 +7980,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>nan</t>
@@ -7946,6 +7995,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8008,7 +8058,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>nan</t>
@@ -8019,6 +8073,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8081,7 +8136,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
@@ -8092,6 +8151,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7205,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7371,7 +7371,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7381,72 +7385,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>15\7\2024</t>
-        </is>
-      </c>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم تركيب وعيار ماكينه</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">تم التشغيل </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>م.الشناوي</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -7459,27 +7431,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7489,7 +7461,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>  </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7509,7 +7481,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15\7\2024</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -7527,7 +7499,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7537,12 +7513,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7552,17 +7528,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7572,7 +7548,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -7587,7 +7563,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>29\1\2025</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -7605,7 +7581,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7615,47 +7595,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -7665,7 +7645,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5\4\2025</t>
+          <t>29\1\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -7683,7 +7663,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7693,17 +7677,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -7713,7 +7697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7723,7 +7707,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7733,17 +7717,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5\7\2025</t>
+          <t>5\4\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -7761,7 +7745,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7771,17 +7759,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7791,12 +7779,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7816,12 +7804,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>24\9\2025</t>
+          <t>5\7\2025</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -7839,7 +7827,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7849,17 +7841,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>859</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7874,7 +7866,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7899,7 +7891,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>24\9\2025</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -7917,7 +7909,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7927,12 +7923,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7995,7 +7991,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8005,12 +8005,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8073,7 +8073,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8083,75 +8087,161 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>1451</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7398,14 +7398,46 @@
           <t>.1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>تم تركيب وعيار ماكينه</t>
@@ -7421,7 +7453,11 @@
           <t>م.الشناوي</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7205,7 +7205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7385,27 +7385,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.1</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>  </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -7435,22 +7435,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15\7\2024</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>تم تركيب وعيار ماكينه</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">تم التشغيل </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>م.الشناوي</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -7467,27 +7467,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>  </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15\7\2024</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7564,17 +7564,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>29\1\2025</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -7631,47 +7631,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29\1\2025</t>
+          <t>5\4\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -7713,17 +7713,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7753,17 +7753,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5\4\2025</t>
+          <t>5\7\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -7795,17 +7795,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>859</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7840,12 +7840,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5\7\2025</t>
+          <t>24\9\2025</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -7877,17 +7877,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>24\9\2025</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8192,88 +8192,6 @@
         </is>
       </c>
       <c r="P12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -536,20 +536,56 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -562,24 +598,56 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -592,20 +660,56 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,20 +722,56 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -649,7 +789,11 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -670,8 +814,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -681,7 +833,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -699,7 +851,11 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -710,10 +866,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -723,7 +895,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -736,20 +908,56 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -762,20 +970,56 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -788,20 +1032,56 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -814,20 +1094,56 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -840,53 +1156,51 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4632,20 +4946,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -4658,20 +4966,14 @@
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -4700,20 +5002,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -4726,20 +5022,14 @@
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -4772,25 +5062,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>641</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>641</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -4810,25 +5092,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>836</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>836</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -4852,20 +5126,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -4878,20 +5146,14 @@
       <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -4904,20 +5166,14 @@
       <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -4930,20 +5186,14 @@
       <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -4956,20 +5206,14 @@
       <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -7205,7 +7449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7276,127 +7520,63 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Serviced by</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Crrection</t>
+          <t>Servised by</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1\2\2024</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">تم تشغيل الكرد </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t xml:space="preserve"> محمد عبدالله</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -7408,160 +7588,56 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>15\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7577,185 +7653,81 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>29\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>565</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>5\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>724</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7766,436 +7738,128 @@
           <t>5\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>859</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>24\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10035,8 +9699,14 @@
       <c r="C2" t="n">
         <v>150</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7037,7 +7037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7116,6 +7116,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7183,7 +7188,12 @@
           <t xml:space="preserve"> محمد عبدالله</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7251,7 +7261,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7319,7 +7334,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7387,7 +7407,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7455,7 +7480,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7523,7 +7553,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7591,7 +7626,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7659,7 +7699,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7727,7 +7772,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7795,7 +7845,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7863,7 +7918,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7193,7 +7193,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7266,7 +7270,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7339,7 +7347,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7412,7 +7424,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7485,7 +7501,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7558,7 +7578,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7631,7 +7655,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7704,7 +7732,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7777,7 +7809,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7850,7 +7886,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7923,7 +7963,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4479,7 +4479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4548,38 +4548,96 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Event </t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4590,48 +4648,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4647,64 +4779,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>641</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>836</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4715,115 +4905,347 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7143,41 +7565,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\2\2024</t>
@@ -7188,16 +7582,8 @@
           <t xml:space="preserve"> محمد عبدالله</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7230,51 +7616,19 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>15\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7292,66 +7646,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7369,11 +7675,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7389,46 +7691,22 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>29\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7451,61 +7729,29 @@
           <t>565</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>5\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7528,36 +7774,16 @@
           <t>724</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7568,21 +7794,9 @@
           <t>5\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7605,61 +7819,25 @@
           <t>859</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>24\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7677,66 +7855,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7754,66 +7884,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7831,66 +7913,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7908,66 +7942,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4479,7 +4479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4550,7 +4550,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Event </t>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correction </t>
         </is>
       </c>
     </row>
@@ -4615,7 +4620,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4678,7 +4688,12 @@
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4741,7 +4756,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4804,7 +4824,12 @@
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4867,7 +4892,12 @@
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4930,7 +4960,12 @@
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4993,7 +5028,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5056,7 +5096,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5119,7 +5164,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5182,7 +5232,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5245,7 +5300,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4479,7 +4479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +4555,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Correction </t>
+          <t>Correction</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviced by </t>
         </is>
       </c>
     </row>
@@ -4625,7 +4630,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4693,7 +4703,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4761,7 +4776,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4829,7 +4849,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4897,7 +4922,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4965,7 +4995,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5033,7 +5068,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5101,7 +5141,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5169,7 +5214,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5237,7 +5287,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5305,7 +5360,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -536,15 +541,52 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -562,15 +604,52 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -588,15 +667,52 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,15 +730,52 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -645,7 +798,11 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -666,13 +823,22 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -695,7 +861,11 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -706,15 +876,32 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -732,15 +919,52 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -758,15 +982,52 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -784,15 +1045,52 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -810,15 +1108,52 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -836,15 +1171,52 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4560,7 +4932,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serviced by </t>
+          <t>Serviced by</t>
         </is>
       </c>
     </row>
@@ -4580,61 +4952,17 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4653,11 +4981,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4668,46 +4992,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4726,61 +5022,17 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -4799,11 +5051,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4819,41 +5067,21 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -4877,56 +5105,24 @@
           <t>641</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4950,11 +5146,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4965,41 +5157,17 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -5018,61 +5186,17 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -5091,61 +5215,17 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -5164,61 +5244,17 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -5237,61 +5273,17 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -5310,61 +5302,17 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -586,7 +591,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,7 +659,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -712,7 +727,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -775,7 +795,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,7 +863,12 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -901,7 +931,12 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -964,7 +999,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1027,7 +1067,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1090,7 +1135,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1153,7 +1203,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1216,7 +1271,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,7 +601,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -664,7 +674,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -732,7 +747,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -800,7 +820,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -868,7 +893,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -936,7 +966,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1004,7 +1039,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1072,7 +1112,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1140,7 +1185,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1208,7 +1258,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1276,7 +1331,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -606,7 +606,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -679,7 +683,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -752,7 +760,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -825,7 +837,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,7 +914,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -971,7 +991,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1044,7 +1068,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,7 +1145,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1190,7 +1222,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1263,7 +1299,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,7 +1376,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,16 +524,6 @@
           <t>Event</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,21 +586,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -650,44 +626,30 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -750,21 +712,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -827,21 +775,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -904,21 +838,7 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -981,21 +901,7 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1058,21 +964,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1135,21 +1027,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1212,21 +1090,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1289,21 +1153,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1366,21 +1216,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1497,7 +1333,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -1866,7 +1706,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -2227,7 +2071,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -2592,7 +2440,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -2963,7 +2815,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -3334,7 +3190,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -3711,7 +3571,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -4082,7 +3946,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -4445,7 +4313,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -4756,7 +4628,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -5015,7 +4891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5084,37 +4960,16 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Serviced by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -5125,25 +4980,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -5157,7 +5003,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -5166,25 +5016,16 @@
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -5195,25 +5036,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -5244,30 +5076,19 @@
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>641</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>641</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -5285,30 +5106,19 @@
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>836</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>836</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -5330,25 +5140,16 @@
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -5359,25 +5160,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -5388,25 +5180,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -5417,25 +5200,16 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -5446,25 +5220,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -5475,9 +5240,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5594,7 +5356,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -5905,7 +5671,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -6272,7 +6042,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -7691,7 +7465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7762,40 +7536,27 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Servised by</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -7811,32 +7572,27 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t xml:space="preserve">تم تشغيل الكرد </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> محمد عبدالله</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -7849,7 +7605,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -7860,23 +7620,16 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -7889,23 +7642,16 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -7938,28 +7684,19 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>565</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -7983,28 +7720,19 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>724</t>
-        </is>
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>724</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -8028,28 +7756,19 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>859</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -8069,23 +7788,16 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -8098,23 +7810,16 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -8127,23 +7832,16 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -8156,23 +7854,16 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -8185,7 +7876,6 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8310,7 +8000,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -8669,7 +8363,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -9014,7 +8712,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -9355,7 +9057,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -9700,7 +9406,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -10039,7 +9749,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -10398,7 +10112,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -10757,7 +10475,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -596,7 +596,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -664,7 +668,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -732,7 +740,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -800,7 +812,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -868,7 +884,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -936,7 +956,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1004,7 +1028,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1072,7 +1100,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1140,7 +1172,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1208,7 +1244,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1276,7 +1316,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,16 +519,6 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -591,16 +581,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,16 +643,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -735,16 +705,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -807,16 +767,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -879,16 +829,6 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -951,16 +891,6 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1023,16 +953,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1095,16 +1015,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1167,16 +1077,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1239,16 +1139,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1307,16 +1197,6 @@
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -581,6 +586,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -643,6 +649,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -705,6 +712,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -767,6 +775,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -829,6 +838,7 @@
           <t>20\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -891,6 +901,7 @@
           <t>6\10\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -953,6 +964,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1015,6 +1027,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1077,6 +1090,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1139,6 +1153,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1201,6 +1216,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -586,7 +586,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,7 +653,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -712,7 +720,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -775,7 +787,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,7 +854,11 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -901,7 +921,11 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -964,7 +988,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1027,7 +1055,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1090,7 +1122,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1153,7 +1189,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1216,7 +1256,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,16 +519,11 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -582,11 +577,6 @@
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -595,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -649,11 +639,6 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -662,7 +647,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -716,11 +701,6 @@
         </is>
       </c>
       <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -729,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -783,11 +763,6 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -796,7 +771,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -852,18 +827,13 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -919,18 +889,13 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -984,11 +949,6 @@
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -997,7 +957,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1051,11 +1011,6 @@
         </is>
       </c>
       <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1064,7 +1019,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1118,11 +1073,6 @@
         </is>
       </c>
       <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1131,7 +1081,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1185,11 +1135,6 @@
         </is>
       </c>
       <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1198,7 +1143,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1252,11 +1197,6 @@
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,306 +519,105 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>632</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -839,53 +638,28 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>870</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -896,371 +670,115 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4935,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5004,38 +4522,96 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5046,52 +4622,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5107,64 +4753,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>641</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>836</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5175,115 +4879,347 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4531,7 +4531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4589,12 +4589,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4652,12 +4656,16 @@
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4715,12 +4723,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4778,12 +4790,16 @@
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4841,12 +4857,16 @@
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4904,12 +4924,16 @@
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4967,12 +4991,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5030,12 +5058,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5093,12 +5125,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5156,12 +5192,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5219,7 +5259,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -521,103 +521,279 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>632</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -638,8 +814,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
@@ -647,19 +831,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>870</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -670,10 +866,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
@@ -681,104 +893,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4544,56 +4966,16 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4611,11 +4993,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4626,41 +5004,21 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4678,56 +5036,16 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4745,11 +5063,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4765,36 +5079,20 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4817,51 +5115,23 @@
           <t>641</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4884,11 +5154,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4899,36 +5165,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4946,56 +5192,16 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5013,56 +5219,16 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5080,56 +5246,16 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5147,56 +5273,16 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5214,56 +5300,16 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,16 +519,11 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -582,11 +577,6 @@
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -595,7 +585,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -649,11 +639,6 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -662,7 +647,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -716,11 +701,6 @@
         </is>
       </c>
       <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -729,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -783,11 +763,6 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -796,7 +771,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -852,18 +827,13 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -919,18 +889,13 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -984,11 +949,6 @@
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -997,7 +957,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1051,11 +1011,6 @@
         </is>
       </c>
       <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1064,7 +1019,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1118,11 +1073,6 @@
         </is>
       </c>
       <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1131,7 +1081,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1185,11 +1135,6 @@
         </is>
       </c>
       <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1198,7 +1143,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1252,11 +1197,6 @@
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,16 +524,11 @@
           <t>Event</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -592,11 +587,6 @@
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -605,7 +595,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -664,11 +654,6 @@
         </is>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -677,7 +662,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -736,11 +721,6 @@
         </is>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -749,7 +729,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -808,11 +788,6 @@
         </is>
       </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -821,7 +796,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -880,11 +855,6 @@
         </is>
       </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -893,7 +863,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -952,11 +922,6 @@
         </is>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -965,7 +930,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1024,11 +989,6 @@
         </is>
       </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1037,7 +997,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1096,11 +1056,6 @@
         </is>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1109,7 +1064,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1168,11 +1123,6 @@
         </is>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1181,7 +1131,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1240,11 +1190,6 @@
         </is>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1253,7 +1198,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1312,11 +1257,6 @@
         </is>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -4995,7 +4935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5064,16 +5004,27 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -5084,16 +5035,23 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -5120,16 +5078,23 @@
           <t>6\8\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -5140,16 +5105,23 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -5180,19 +5152,28 @@
           <t>23\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>641</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -5210,19 +5191,28 @@
           <t>15\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>836</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -5244,16 +5234,23 @@
           <t>4\9\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -5264,16 +5261,23 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -5284,16 +5288,23 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -5304,16 +5315,23 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -5324,16 +5342,23 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -5344,6 +5369,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correction </t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -591,6 +596,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -658,6 +664,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -725,6 +732,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -792,6 +800,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -859,6 +868,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -926,6 +936,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -993,6 +1004,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1060,6 +1072,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1127,6 +1140,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1194,6 +1208,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1261,6 +1276,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -601,6 +606,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +679,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -745,6 +752,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -817,6 +825,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -889,6 +898,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -961,6 +971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1033,6 +1044,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1105,6 +1117,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1177,6 +1190,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1249,6 +1263,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1321,6 +1336,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1381,23 @@
           <t>nan</t>
         </is>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,23 +1381,6 @@
           <t>nan</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -551,66 +551,18 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -628,66 +580,22 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -705,66 +613,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -782,66 +642,18 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,11 +676,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -889,36 +697,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,11 +729,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -956,46 +740,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1013,66 +769,18 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1090,66 +798,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1167,66 +827,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1244,66 +856,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1321,66 +885,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,23 +572,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -605,19 +605,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -634,12 +638,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -663,47 +667,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
-      </c>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>20\5\2025</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -716,17 +696,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>632</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -740,13 +720,21 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6\10\2025</t>
+          <t>20\5\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -761,23 +749,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6\10\2025</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -790,12 +794,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -819,12 +823,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -848,12 +852,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -877,12 +881,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -897,6 +901,35 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,23 +572,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -605,23 +605,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -638,12 +634,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -667,23 +663,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>20\5\2025</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -696,17 +716,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>870</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -720,21 +740,13 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20\5\2025</t>
+          <t>6\10\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -749,39 +761,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>6\10\2025</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -794,12 +790,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -823,12 +819,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -852,12 +848,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -881,12 +877,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -901,35 +897,6 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -596,11 +596,7 @@
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -673,11 +669,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
@@ -750,11 +742,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>
@@ -827,11 +815,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>nan</t>
@@ -904,11 +888,7 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>nan</t>
@@ -981,11 +961,7 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1058,11 +1034,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1135,11 +1107,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1212,11 +1180,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1289,11 +1253,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1366,11 +1326,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -596,12 +596,12 @@
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -669,12 +669,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>nan</t>
@@ -742,12 +742,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>nan</t>
@@ -815,12 +815,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>nan</t>
@@ -888,12 +888,12 @@
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>nan</t>
@@ -961,12 +961,12 @@
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1034,12 +1034,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1107,12 +1107,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1180,12 +1180,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1253,12 +1253,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1326,12 +1326,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>nan</t>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -601,12 +601,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -674,12 +674,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -747,12 +747,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -820,12 +820,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -893,12 +893,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -966,12 +966,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1039,12 +1039,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1112,12 +1112,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1185,12 +1185,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1258,12 +1258,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1331,12 +1331,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -556,56 +556,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -624,61 +588,17 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -697,61 +617,17 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -770,61 +646,17 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -848,11 +680,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -873,31 +701,15 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -921,11 +733,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -936,41 +744,17 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -989,61 +773,17 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1062,61 +802,17 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1135,61 +831,17 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1208,61 +860,17 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1281,61 +889,17 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
@@ -5042,36 +4606,88 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5082,11 +4698,31 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
@@ -5094,36 +4730,88 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5139,14 +4827,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
@@ -5154,29 +4854,61 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>641</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
@@ -5184,19 +4916,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>836</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5207,10 +4951,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
@@ -5218,104 +4978,314 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4535,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,6 +4604,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4666,6 +4671,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4728,6 +4734,7 @@
           <t>6\8\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4790,6 +4797,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4852,6 +4860,7 @@
           <t>23\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4914,6 +4923,7 @@
           <t>15\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4976,6 +4986,7 @@
           <t>4\9\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5038,6 +5049,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5100,6 +5112,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5162,6 +5175,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5224,6 +5238,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5286,6 +5301,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4535,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4609,6 +4609,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4671,7 +4676,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4734,7 +4744,12 @@
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4797,7 +4812,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4860,7 +4880,12 @@
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4923,7 +4948,12 @@
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4986,7 +5016,12 @@
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5049,7 +5084,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5112,7 +5152,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5175,7 +5220,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5238,7 +5288,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5301,7 +5356,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4535,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4614,6 +4614,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4681,7 +4686,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4749,7 +4759,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4817,7 +4832,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4885,7 +4905,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4953,7 +4978,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5021,7 +5051,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5089,7 +5124,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5157,7 +5197,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5225,7 +5270,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5293,7 +5343,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5361,7 +5416,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4691,7 +4691,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4764,7 +4768,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4837,7 +4845,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4910,7 +4922,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4983,7 +4999,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5056,7 +5076,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5129,7 +5153,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5202,7 +5230,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5275,7 +5307,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5348,7 +5384,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5421,7 +5461,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4683,7 +4683,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم التشغيل</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4693,7 +4693,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>م.صيام</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4623,7 +4623,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4700,7 +4700,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4777,7 +4777,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4854,7 +4854,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4931,7 +4931,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5085,7 +5085,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5162,7 +5162,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5239,7 +5239,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5393,7 +5393,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4623,7 +4623,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1\2\2024</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -4700,7 +4700,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4777,7 +4777,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4854,7 +4854,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4931,7 +4931,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5085,7 +5085,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5162,7 +5162,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5239,7 +5239,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5393,7 +5393,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4678,7 +4678,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1\2\2024</t>
+          <t>1\2\2023</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4636,46 +4636,14 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\2\2023</t>
@@ -4686,11 +4654,7 @@
           <t>تم التشغيل</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>م.صيام</t>
@@ -4713,11 +4677,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4728,51 +4688,19 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4790,66 +4718,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4867,11 +4747,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4887,46 +4763,22 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4949,61 +4801,25 @@
           <t>641</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5026,11 +4842,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5041,46 +4853,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5098,66 +4882,18 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5175,66 +4911,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5252,66 +4940,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5329,66 +4969,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5406,66 +4998,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8539,7 +8083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8608,78 +8152,222 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8695,64 +8383,122 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>25\1\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>629</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>14\5\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>800</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8763,115 +8509,347 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>1\9\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8083,7 +8083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8157,6 +8157,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8219,7 +8224,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8282,7 +8292,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8345,7 +8360,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8408,7 +8428,12 @@
           <t>25\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8471,7 +8496,12 @@
           <t>14\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8534,7 +8564,12 @@
           <t>1\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8597,7 +8632,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8660,7 +8700,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8723,7 +8768,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8786,7 +8836,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8849,7 +8904,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8083,7 +8083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8162,6 +8162,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8229,7 +8234,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8297,7 +8307,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8365,7 +8380,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8433,7 +8453,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8501,7 +8526,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8569,7 +8599,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8637,7 +8672,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8705,7 +8745,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8773,7 +8818,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8841,7 +8891,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8909,7 +8964,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8171,7 +8171,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8239,12 +8239,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8312,12 +8316,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8385,12 +8393,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8458,12 +8470,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8531,12 +8547,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8604,12 +8624,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8677,12 +8701,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8750,12 +8778,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8823,12 +8855,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8896,12 +8932,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8969,7 +9009,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم التشغيل</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8241,7 +8241,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>ا.نادر</t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4535,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4623,7 +4623,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4636,7 +4636,11 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -4644,22 +4648,10 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1\2\2023</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>تم التشغيل</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>م.صيام</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4669,38 +4661,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6\8\2024</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+          <t>1\2\2023</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>تم التشغيل</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>م.صيام</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4710,26 +4738,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>6\8\2024</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4739,46 +4815,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23\1\2025</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4788,38 +4892,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>641</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15\5\2025</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+          <t>23\1\2025</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4829,42 +4969,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>836</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4\9\2025</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+          <t>15\5\2025</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4874,26 +5046,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4\9\2025</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4903,26 +5123,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4932,26 +5200,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4961,26 +5277,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4990,26 +5354,151 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>1451</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8184,61 +8673,21 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>تم التشغيل</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>ا.نادر</t>
@@ -8261,66 +8710,18 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8338,66 +8739,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8415,11 +8768,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8435,46 +8784,22 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>25\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8497,61 +8822,25 @@
           <t>629</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>14\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8574,11 +8863,7 @@
           <t>800</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8589,46 +8874,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>1\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8646,66 +8903,18 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8723,66 +8932,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8800,66 +8961,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8877,66 +8990,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8954,66 +9019,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4641,22 +4641,66 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4733,7 +4777,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4810,7 +4854,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4887,7 +4931,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4964,7 +5008,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5041,7 +5085,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5118,7 +5162,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5195,7 +5239,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5272,7 +5316,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5349,7 +5393,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5426,7 +5470,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4715,7 +4715,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4535,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4678,12 +4678,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1\2\2023</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم التشغيل</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>م.صيام</t>
         </is>
       </c>
     </row>
@@ -4705,27 +4705,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4755,12 +4755,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1\2\2023</t>
+          <t>6\8\2024</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>تم التشغيل</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>م.صيام</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4782,12 +4782,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6\8\2024</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4859,12 +4859,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>23\1\2025</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -4936,42 +4936,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>641</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>23\1\2025</t>
+          <t>15\5\2025</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -5013,17 +5013,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>836</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5033,17 +5033,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>15\5\2025</t>
+          <t>4\9\2025</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -5090,17 +5090,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5110,12 +5110,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4\9\2025</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5244,12 +5244,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5462,83 +5462,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -4641,41 +4641,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\2\2023</t>
@@ -4686,11 +4658,7 @@
           <t>تم التشغيل</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>م.صيام</t>
@@ -4713,11 +4681,7 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4728,51 +4692,19 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4790,66 +4722,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4867,11 +4751,7 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -4887,46 +4767,22 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4949,61 +4805,25 @@
           <t>641</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5026,11 +4846,7 @@
           <t>836</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5041,46 +4857,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5098,66 +4886,18 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5175,66 +4915,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5252,66 +4944,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5329,66 +4973,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5406,66 +5002,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6223,47 +5771,123 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>21\7\2024</t>
@@ -6271,36 +5895,88 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -6316,14 +5992,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>19\1\2025</t>
@@ -6331,29 +6019,61 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>573</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>8\4\2025</t>
@@ -6361,28 +6081,56 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>729</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -6395,19 +6143,31 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>869</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -6418,10 +6178,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>30\9\2025</t>
@@ -6429,84 +6205,252 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -570,7 +565,6 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -599,7 +593,6 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,7 +621,6 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -657,7 +649,6 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -710,7 +701,6 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -755,7 +745,6 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -784,7 +773,6 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,7 +801,6 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,7 +829,6 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -871,7 +857,6 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -900,7 +885,6 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4535,7 +4519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,43 +4588,18 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -4648,38 +4607,17 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1\2\2023</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>تم التشغيل</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>م.صيام</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -4702,25 +4640,16 @@
           <t>6\8\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -4731,25 +4660,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -4780,30 +4700,19 @@
           <t>23\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>641</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>641</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -4821,30 +4730,19 @@
           <t>15\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>836</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>836</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -4866,25 +4764,16 @@
           <t>4\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -4895,25 +4784,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -4924,25 +4804,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -4953,25 +4824,16 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -4982,25 +4844,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -5011,9 +4864,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5771,123 +5621,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>21\7\2024</t>
@@ -5895,88 +5669,36 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -5992,26 +5714,14 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>19\1\2025</t>
@@ -6019,61 +5729,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>573</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>573</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>8\4\2025</t>
@@ -6081,56 +5759,28 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>729</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>729</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -6143,31 +5793,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>869</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>869</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -6178,26 +5816,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>30\9\2025</t>
@@ -6205,252 +5827,84 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8086,7 +7540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8155,38 +7609,96 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8197,28 +7709,59 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>16\7\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8234,89 +7777,210 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>27\2\2025</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>559</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>7\4\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>727</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8327,21 +7991,34 @@
           <t>6\7\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>860</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8352,125 +8029,347 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>28\9\2025</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>851</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>950</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>1\11\2025</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8483,7 +8382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8552,37 +8451,16 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -8593,33 +8471,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>تم التشغيل</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>ا.نادر</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -8630,25 +8491,16 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -8659,25 +8511,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -8708,30 +8551,19 @@
           <t>25\1\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>629</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>629</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -8749,30 +8581,19 @@
           <t>14\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>800</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -8794,25 +8615,16 @@
           <t>1\9\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -8823,25 +8635,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -8852,25 +8655,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -8881,25 +8675,16 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -8910,25 +8695,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -8939,9 +8715,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7540,7 +7540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7614,6 +7614,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7676,7 +7681,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7739,7 +7749,12 @@
           <t>16\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7802,7 +7817,12 @@
           <t>27\2\2025</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7865,7 +7885,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7928,7 +7953,12 @@
           <t>7\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7991,7 +8021,12 @@
           <t>6\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8054,7 +8089,12 @@
           <t>28\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8117,7 +8157,12 @@
           <t>1\11\2025</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8180,7 +8225,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8243,7 +8293,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8306,7 +8361,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8369,7 +8429,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7540,7 +7540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7619,6 +7619,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7686,7 +7691,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7754,7 +7764,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7822,7 +7837,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7890,7 +7910,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7958,7 +7983,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8026,7 +8056,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8094,7 +8129,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8162,7 +8202,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8230,7 +8275,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8298,7 +8348,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8366,7 +8421,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8434,7 +8494,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7540,7 +7540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7609,116 +7609,38 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7729,69 +7651,28 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>16\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7807,240 +7688,89 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>27\2\2025</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>559</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>7\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>727</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>727</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8051,44 +7781,21 @@
           <t>6\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>860</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8099,407 +7806,125 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>28\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>950</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>950</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>1\11\2025</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9943,47 +9368,123 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>1\12\2024</t>
@@ -9991,37 +9492,93 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10032,10 +9589,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>11\3\2025</t>
@@ -10043,21 +9616,41 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>590</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10068,8 +9661,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>29\4\2025</t>
@@ -10077,29 +9678,61 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>785</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>20\8\2025</t>
@@ -10107,19 +9740,31 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>883</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10130,10 +9775,26 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>23\10\2025</t>
@@ -10141,84 +9802,252 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -551,20 +551,52 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1\1\1111\</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,17 +614,61 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,17 +686,61 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -638,17 +758,61 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -671,7 +835,11 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -692,15 +860,31 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,7 +907,11 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -734,17 +922,41 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,17 +974,61 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -790,17 +1046,61 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -818,17 +1118,61 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,17 +1190,61 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -874,17 +1262,61 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9383,51 +9815,15 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9445,46 +9841,18 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>1\12\2024</t>
@@ -9507,51 +9875,15 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9569,16 +9901,8 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9589,26 +9913,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>11\3\2025</t>
@@ -9636,21 +9944,9 @@
           <t>590</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9661,16 +9957,8 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>29\4\2025</t>
@@ -9698,41 +9986,17 @@
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>20\8\2025</t>
@@ -9760,11 +10024,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9775,26 +10035,10 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>23\10\2025</t>
@@ -9817,51 +10061,15 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9879,51 +10087,15 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9941,51 +10113,15 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10003,51 +10139,15 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -586,7 +591,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -597,6 +606,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -669,6 +679,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -741,6 +752,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -813,6 +825,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -885,6 +898,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -957,6 +971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1029,6 +1044,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1101,6 +1117,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1173,6 +1190,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1245,6 +1263,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1317,6 +1336,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -598,15 +598,19 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>تم استبدال بواحد جديد</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>تم استبدال بواحد جديد</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>م.صيام</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -679,7 +683,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -744,14 +752,10 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>ليكر ان مكسور</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -825,7 +829,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,7 +906,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -971,7 +983,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1044,7 +1060,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,7 +1137,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1190,7 +1214,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1263,7 +1291,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,7 +1368,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -755,8 +755,16 @@
           <t>ليكر ان مكسور</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -598,7 +598,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>تم استبدال بواحد جديد</t>
+          <t>ليكر ان مكسور</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -750,11 +750,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>ليكر ان مكسور</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -598,17 +598,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ليكر ان مكسور</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>تم استبدال بواحد جديد</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>م.صيام</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>nan</t>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,64 +548,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>1\1\1111\</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -628,66 +582,17 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -705,66 +610,17 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -782,66 +638,17 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,11 +671,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -889,36 +692,15 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,11 +723,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -956,46 +734,17 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1013,66 +762,17 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1090,66 +790,17 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1167,66 +818,17 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1244,66 +846,17 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1321,66 +874,17 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9793,7 +9297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9862,6 +9366,11 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9879,15 +9388,52 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9905,23 +9451,52 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>1\12\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9939,15 +9514,52 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9965,8 +9577,16 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9977,15 +9597,32 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>11\3\2025</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10008,9 +9645,21 @@
           <t>590</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10021,13 +9670,22 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>29\4\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10050,22 +9708,47 @@
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>20\8\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10088,7 +9771,11 @@
           <t>883</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -10099,15 +9786,32 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>23\10\2025</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10125,15 +9829,52 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10151,15 +9892,52 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10177,15 +9955,52 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10203,15 +10018,52 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9297,7 +9297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9371,6 +9371,11 @@
           <t>Event</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9433,7 +9438,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9496,7 +9506,12 @@
           <t>1\12\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9559,7 +9574,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9622,7 +9642,12 @@
           <t>11\3\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9685,7 +9710,12 @@
           <t>29\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9748,7 +9778,12 @@
           <t>20\8\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9811,7 +9846,12 @@
           <t>23\10\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9874,7 +9914,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9937,7 +9982,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10000,7 +10050,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10063,7 +10118,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9297,7 +9297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9376,6 +9376,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Servised by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9443,7 +9448,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9511,7 +9521,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9579,7 +9594,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9647,7 +9667,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9715,7 +9740,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9783,7 +9813,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9851,7 +9886,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9919,7 +9959,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9987,7 +10032,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10055,7 +10105,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10123,7 +10178,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -9453,7 +9453,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9526,7 +9530,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9599,7 +9607,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9672,7 +9684,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9745,7 +9761,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9818,7 +9838,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9891,7 +9915,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9964,7 +9992,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10037,7 +10069,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10110,7 +10146,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10183,7 +10223,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Correction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Serviced by</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,20 +556,57 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,17 +624,62 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,17 +697,62 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -638,17 +770,62 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -671,7 +848,11 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -692,15 +873,32 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,7 +921,11 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -734,17 +936,42 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,17 +989,62 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -790,17 +1062,62 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -818,17 +1135,62 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,17 +1208,62 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -874,17 +1281,62 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9398,66 +9850,18 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9475,66 +9879,26 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>1\12\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9552,66 +9916,18 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9629,16 +9945,8 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9649,46 +9957,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>11\3\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9711,21 +9991,9 @@
           <t>590</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9736,36 +10004,16 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>29\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9788,61 +10036,25 @@
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>20\8\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9865,11 +10077,7 @@
           <t>883</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -9880,46 +10088,18 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>23\10\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9937,66 +10117,18 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10014,66 +10146,18 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10091,66 +10175,18 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10168,66 +10204,18 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -556,56 +556,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -624,61 +588,17 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -697,61 +617,17 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -770,61 +646,17 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -848,11 +680,7 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -873,31 +701,15 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -921,11 +733,7 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -936,41 +744,17 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -989,61 +773,17 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1062,61 +802,17 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1135,61 +831,17 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1208,61 +860,17 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1281,61 +889,17 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
@@ -7992,7 +7556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8061,38 +7625,96 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Event </t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8103,28 +7725,59 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>16\7\2024</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8140,89 +7793,210 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>27\2\2025</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>550</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>551</v>
-      </c>
-      <c r="C6" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" t="n">
-        <v>559</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>7\4\2025</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>701</v>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
-      </c>
-      <c r="D7" t="n">
-        <v>727</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8233,21 +8007,34 @@
           <t>6\7\2025</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>860</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8258,125 +8045,347 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>28\9\2025</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>851</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>950</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>1\11\2025</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1301</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1451</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7556,7 +7556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7627,7 +7627,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Event </t>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correction </t>
         </is>
       </c>
     </row>
@@ -7692,7 +7697,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7755,7 +7765,12 @@
           <t>16\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7818,7 +7833,12 @@
           <t>27\2\2025</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7881,7 +7901,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7944,7 +7969,12 @@
           <t>7\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8007,7 +8037,12 @@
           <t>6\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8070,7 +8105,12 @@
           <t>28\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8133,7 +8173,12 @@
           <t>1\11\2025</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8196,7 +8241,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8259,7 +8309,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8322,7 +8377,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8385,7 +8445,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7556,7 +7556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7632,7 +7632,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Correction </t>
+          <t>Correction</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serviced by </t>
         </is>
       </c>
     </row>
@@ -7702,7 +7707,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7770,7 +7780,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7838,7 +7853,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7906,7 +7926,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7974,7 +7999,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8042,7 +8072,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8110,7 +8145,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8178,7 +8218,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8246,7 +8291,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8314,7 +8364,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8382,7 +8437,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8450,7 +8510,12 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -7637,7 +7637,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serviced by </t>
+          <t>Serviced by</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7785,7 +7789,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7858,7 +7866,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7931,7 +7943,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8004,7 +8020,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8077,7 +8097,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8150,7 +8174,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8215,7 +8243,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">تم سن الفلاتس ومعايرته </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -8223,7 +8251,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8296,7 +8328,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8369,7 +8405,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8442,7 +8482,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8515,7 +8559,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8253,7 +8253,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">م.محمد عبدالله </t>
         </is>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Serviced by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,24 +548,59 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>1\1\1111\</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,18 +618,61 @@
           <t>300</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -617,18 +690,61 @@
           <t>450</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,18 +762,61 @@
           <t>550</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -680,7 +839,11 @@
           <t>632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>✔</t>
@@ -701,16 +864,31 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>20\5\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -733,7 +911,11 @@
           <t>870</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -744,18 +926,41 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>6\10\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -773,18 +978,61 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -802,18 +1050,61 @@
           <t>1150</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -831,18 +1122,61 @@
           <t>1300</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -860,18 +1194,61 @@
           <t>1450</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -889,18 +1266,61 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7556,7 +7976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7625,120 +8045,38 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Serviced by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7749,73 +8087,28 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>16\7\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>✔</t>
@@ -7831,252 +8124,89 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>27\2\2025</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>559</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>7\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>727</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>727</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8087,48 +8217,21 @@
           <t>6\7\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>860</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>✔</t>
@@ -8139,431 +8242,125 @@
           <t>✔</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>28\9\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>950</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>950</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>1\11\2025</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">تم سن الفلاتس ومعايرته </t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">م.محمد عبدالله </t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9936,7 +9733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10005,37 +9802,16 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Servised by</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -10046,25 +9822,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -10083,25 +9850,16 @@
           <t>1\12\2024</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -10112,25 +9870,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -10153,30 +9902,19 @@
           <t>11\3\2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>700</v>
+      </c>
+      <c r="D6" t="n">
+        <v>590</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -10198,30 +9936,19 @@
           <t>29\4\2025</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>850</v>
+      </c>
+      <c r="D7" t="n">
+        <v>785</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -10239,30 +9966,19 @@
           <t>20\8\2025</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>883</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>883</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
@@ -10284,25 +10000,16 @@
           <t>23\10\2025</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1150</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -10313,25 +10020,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1300</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -10342,25 +10040,16 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1450</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -10371,25 +10060,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1500</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -10400,9 +10080,6 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
